--- a/MVP_02/SHOPPING_LISTS/INACOM.xlsx
+++ b/MVP_02/SHOPPING_LISTS/INACOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -76,12 +76,6 @@
     <t>20-019450</t>
   </si>
   <si>
-    <t>20-019454</t>
-  </si>
-  <si>
-    <t>20-019455</t>
-  </si>
-  <si>
     <t>20-019486</t>
   </si>
   <si>
@@ -115,12 +109,6 @@
     <t>PEEK Y CONNECTOR</t>
   </si>
   <si>
-    <t>FITTING PEEK 1/2-20, 1/4" OD</t>
-  </si>
-  <si>
-    <t>FLANGELESS FITTING PEEK 1/2-20, 1/4" OD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DELRIN PLUG, 1/4-28 FLAT BOTTOM</t>
   </si>
   <si>
@@ -155,12 +143,6 @@
   </si>
   <si>
     <t>P-514</t>
-  </si>
-  <si>
-    <t>U-665</t>
-  </si>
-  <si>
-    <t>XU-655</t>
   </si>
   <si>
     <t>P-309</t>
@@ -541,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -598,16 +580,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
@@ -621,16 +603,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1">
         <v>6</v>
@@ -644,16 +626,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1">
         <v>6</v>
@@ -667,16 +649,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -684,22 +666,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -707,22 +689,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1">
         <v>16</v>
@@ -730,22 +712,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -753,22 +735,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -776,22 +758,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -799,22 +781,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -822,67 +804,21 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="1">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="1">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="1">
         <v>5</v>
       </c>
     </row>
